--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Nlgn3-Nrxn2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Nlgn3-Nrxn2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,10 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -531,49 +540,49 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.384366844670703</v>
+        <v>0.007630333333333334</v>
       </c>
       <c r="H2">
-        <v>0.384366844670703</v>
+        <v>0.022891</v>
       </c>
       <c r="I2">
-        <v>0.3629892815731141</v>
+        <v>0.004433708971583279</v>
       </c>
       <c r="J2">
-        <v>0.3629892815731141</v>
+        <v>0.004433708971583279</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.279461510055578</v>
+        <v>0.03061966666666667</v>
       </c>
       <c r="N2">
-        <v>0.279461510055578</v>
+        <v>0.091859</v>
       </c>
       <c r="O2">
-        <v>0.6143868444166506</v>
+        <v>0.04788163422745326</v>
       </c>
       <c r="P2">
-        <v>0.6143868444166506</v>
+        <v>0.04788163422745326</v>
       </c>
       <c r="Q2">
-        <v>0.1074157388269724</v>
+        <v>0.0002336382632222222</v>
       </c>
       <c r="R2">
-        <v>0.1074157388269724</v>
+        <v>0.002102744369</v>
       </c>
       <c r="S2">
-        <v>0.2230158392627726</v>
+        <v>0.0002122932312483285</v>
       </c>
       <c r="T2">
-        <v>0.2230158392627726</v>
+        <v>0.0002122932312483285</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,123 +590,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.384366844670703</v>
+        <v>0.007630333333333334</v>
       </c>
       <c r="H3">
-        <v>0.384366844670703</v>
+        <v>0.022891</v>
       </c>
       <c r="I3">
-        <v>0.3629892815731141</v>
+        <v>0.004433708971583279</v>
       </c>
       <c r="J3">
-        <v>0.3629892815731141</v>
+        <v>0.004433708971583279</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.175400947686208</v>
+        <v>0.3195506666666667</v>
       </c>
       <c r="N3">
-        <v>0.175400947686208</v>
+        <v>0.9586520000000001</v>
       </c>
       <c r="O3">
-        <v>0.3856131555833494</v>
+        <v>0.499698716679003</v>
       </c>
       <c r="P3">
-        <v>0.3856131555833494</v>
+        <v>0.499698716679003</v>
       </c>
       <c r="Q3">
-        <v>0.06741830881439881</v>
+        <v>0.002438278103555556</v>
       </c>
       <c r="R3">
-        <v>0.06741830881439881</v>
+        <v>0.021944502932</v>
       </c>
       <c r="S3">
-        <v>0.1399734423103414</v>
+        <v>0.002215518683228346</v>
       </c>
       <c r="T3">
-        <v>0.1399734423103414</v>
+        <v>0.002215518683228346</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.153826950983719</v>
+        <v>0.007630333333333334</v>
       </c>
       <c r="H4">
-        <v>0.153826950983719</v>
+        <v>0.022891</v>
       </c>
       <c r="I4">
-        <v>0.1452714644833642</v>
+        <v>0.004433708971583279</v>
       </c>
       <c r="J4">
-        <v>0.1452714644833642</v>
+        <v>0.004433708971583279</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.279461510055578</v>
+        <v>0.2893163333333333</v>
       </c>
       <c r="N4">
-        <v>0.279461510055578</v>
+        <v>0.867949</v>
       </c>
       <c r="O4">
-        <v>0.6143868444166506</v>
+        <v>0.4524196490935437</v>
       </c>
       <c r="P4">
-        <v>0.6143868444166506</v>
+        <v>0.4524196490935438</v>
       </c>
       <c r="Q4">
-        <v>0.04298871200915549</v>
+        <v>0.002207580062111111</v>
       </c>
       <c r="R4">
-        <v>0.04298871200915549</v>
+        <v>0.019868220559</v>
       </c>
       <c r="S4">
-        <v>0.08925287664771966</v>
+        <v>0.002005897057106604</v>
       </c>
       <c r="T4">
-        <v>0.08925287664771966</v>
+        <v>0.002005897057106604</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,185 +714,929 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.153826950983719</v>
+        <v>0.385603</v>
       </c>
       <c r="H5">
-        <v>0.153826950983719</v>
+        <v>1.156809</v>
       </c>
       <c r="I5">
-        <v>0.1452714644833642</v>
+        <v>0.2240598681450474</v>
       </c>
       <c r="J5">
-        <v>0.1452714644833642</v>
+        <v>0.2240598681450474</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.175400947686208</v>
+        <v>0.03061966666666667</v>
       </c>
       <c r="N5">
-        <v>0.175400947686208</v>
+        <v>0.091859</v>
       </c>
       <c r="O5">
-        <v>0.3856131555833494</v>
+        <v>0.04788163422745326</v>
       </c>
       <c r="P5">
-        <v>0.3856131555833494</v>
+        <v>0.04788163422745326</v>
       </c>
       <c r="Q5">
-        <v>0.02698139298222418</v>
+        <v>0.01180703532566667</v>
       </c>
       <c r="R5">
-        <v>0.02698139298222418</v>
+        <v>0.106263317931</v>
       </c>
       <c r="S5">
-        <v>0.05601858783564453</v>
+        <v>0.01072835265157257</v>
       </c>
       <c r="T5">
-        <v>0.05601858783564453</v>
+        <v>0.01072835265157257</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.520699301698049</v>
+        <v>0.385603</v>
       </c>
       <c r="H6">
-        <v>0.520699301698049</v>
+        <v>1.156809</v>
       </c>
       <c r="I6">
-        <v>0.4917392539435217</v>
+        <v>0.2240598681450474</v>
       </c>
       <c r="J6">
-        <v>0.4917392539435217</v>
+        <v>0.2240598681450474</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.279461510055578</v>
+        <v>0.3195506666666667</v>
       </c>
       <c r="N6">
-        <v>0.279461510055578</v>
+        <v>0.9586520000000001</v>
       </c>
       <c r="O6">
-        <v>0.6143868444166506</v>
+        <v>0.499698716679003</v>
       </c>
       <c r="P6">
-        <v>0.6143868444166506</v>
+        <v>0.499698716679003</v>
       </c>
       <c r="Q6">
-        <v>0.1455154131374218</v>
+        <v>0.1232196957186667</v>
       </c>
       <c r="R6">
-        <v>0.1455154131374218</v>
+        <v>1.108977261468</v>
       </c>
       <c r="S6">
-        <v>0.3021181285061583</v>
+        <v>0.1119624285713468</v>
       </c>
       <c r="T6">
-        <v>0.3021181285061583</v>
+        <v>0.1119624285713468</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.385603</v>
+      </c>
+      <c r="H7">
+        <v>1.156809</v>
+      </c>
+      <c r="I7">
+        <v>0.2240598681450474</v>
+      </c>
+      <c r="J7">
+        <v>0.2240598681450474</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.2893163333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.867949</v>
+      </c>
+      <c r="O7">
+        <v>0.4524196490935437</v>
+      </c>
+      <c r="P7">
+        <v>0.4524196490935438</v>
+      </c>
+      <c r="Q7">
+        <v>0.1115612460823333</v>
+      </c>
+      <c r="R7">
+        <v>1.004051214741</v>
+      </c>
+      <c r="S7">
+        <v>0.101369086922128</v>
+      </c>
+      <c r="T7">
+        <v>0.101369086922128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.1742253333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.522676</v>
+      </c>
+      <c r="I8">
+        <v>0.1012359997567281</v>
+      </c>
+      <c r="J8">
+        <v>0.101235999756728</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.03061966666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.091859</v>
+      </c>
+      <c r="O8">
+        <v>0.04788163422745326</v>
+      </c>
+      <c r="P8">
+        <v>0.04788163422745326</v>
+      </c>
+      <c r="Q8">
+        <v>0.005334721631555556</v>
+      </c>
+      <c r="R8">
+        <v>0.048012494684</v>
+      </c>
+      <c r="S8">
+        <v>0.004847345111002201</v>
+      </c>
+      <c r="T8">
+        <v>0.0048473451110022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.1742253333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.522676</v>
+      </c>
+      <c r="I9">
+        <v>0.1012359997567281</v>
+      </c>
+      <c r="J9">
+        <v>0.101235999756728</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.3195506666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.9586520000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.499698716679003</v>
+      </c>
+      <c r="P9">
+        <v>0.499698716679003</v>
+      </c>
+      <c r="Q9">
+        <v>0.0556738214168889</v>
+      </c>
+      <c r="R9">
+        <v>0.5010643927520001</v>
+      </c>
+      <c r="S9">
+        <v>0.05058749916015287</v>
+      </c>
+      <c r="T9">
+        <v>0.05058749916015286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.1742253333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.522676</v>
+      </c>
+      <c r="I10">
+        <v>0.1012359997567281</v>
+      </c>
+      <c r="J10">
+        <v>0.101235999756728</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.2893163333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.867949</v>
+      </c>
+      <c r="O10">
+        <v>0.4524196490935437</v>
+      </c>
+      <c r="P10">
+        <v>0.4524196490935438</v>
+      </c>
+      <c r="Q10">
+        <v>0.05040623461377778</v>
+      </c>
+      <c r="R10">
+        <v>0.453656111524</v>
+      </c>
+      <c r="S10">
+        <v>0.04580115548557299</v>
+      </c>
+      <c r="T10">
+        <v>0.04580115548557299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.03610366666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.108311</v>
+      </c>
+      <c r="I11">
+        <v>0.02097852660089802</v>
+      </c>
+      <c r="J11">
+        <v>0.02097852660089802</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.03061966666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.091859</v>
+      </c>
+      <c r="O11">
+        <v>0.04788163422745326</v>
+      </c>
+      <c r="P11">
+        <v>0.04788163422745326</v>
+      </c>
+      <c r="Q11">
+        <v>0.001105482238777778</v>
+      </c>
+      <c r="R11">
+        <v>0.009949340149000001</v>
+      </c>
+      <c r="S11">
+        <v>0.001004486137335097</v>
+      </c>
+      <c r="T11">
+        <v>0.001004486137335097</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.03610366666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.108311</v>
+      </c>
+      <c r="I12">
+        <v>0.02097852660089802</v>
+      </c>
+      <c r="J12">
+        <v>0.02097852660089802</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.3195506666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.9586520000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.499698716679003</v>
+      </c>
+      <c r="P12">
+        <v>0.499698716679003</v>
+      </c>
+      <c r="Q12">
+        <v>0.01153695075244445</v>
+      </c>
+      <c r="R12">
+        <v>0.103832556772</v>
+      </c>
+      <c r="S12">
+        <v>0.01048294282028506</v>
+      </c>
+      <c r="T12">
+        <v>0.01048294282028506</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.03610366666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.108311</v>
+      </c>
+      <c r="I13">
+        <v>0.02097852660089802</v>
+      </c>
+      <c r="J13">
+        <v>0.02097852660089802</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.2893163333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.867949</v>
+      </c>
+      <c r="O13">
+        <v>0.4524196490935437</v>
+      </c>
+      <c r="P13">
+        <v>0.4524196490935438</v>
+      </c>
+      <c r="Q13">
+        <v>0.01044538045988889</v>
+      </c>
+      <c r="R13">
+        <v>0.094008424139</v>
+      </c>
+      <c r="S13">
+        <v>0.009491097643277853</v>
+      </c>
+      <c r="T13">
+        <v>0.009491097643277853</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.520699301698049</v>
-      </c>
-      <c r="H7">
-        <v>0.520699301698049</v>
-      </c>
-      <c r="I7">
-        <v>0.4917392539435217</v>
-      </c>
-      <c r="J7">
-        <v>0.4917392539435217</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.175400947686208</v>
-      </c>
-      <c r="N7">
-        <v>0.175400947686208</v>
-      </c>
-      <c r="O7">
-        <v>0.3856131555833494</v>
-      </c>
-      <c r="P7">
-        <v>0.3856131555833494</v>
-      </c>
-      <c r="Q7">
-        <v>0.09133115097738453</v>
-      </c>
-      <c r="R7">
-        <v>0.09133115097738453</v>
-      </c>
-      <c r="S7">
-        <v>0.1896211254373634</v>
-      </c>
-      <c r="T7">
-        <v>0.1896211254373634</v>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.09389933333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.281698</v>
+      </c>
+      <c r="I14">
+        <v>0.05456148485767623</v>
+      </c>
+      <c r="J14">
+        <v>0.05456148485767622</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.03061966666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.091859</v>
+      </c>
+      <c r="O14">
+        <v>0.04788163422745326</v>
+      </c>
+      <c r="P14">
+        <v>0.04788163422745326</v>
+      </c>
+      <c r="Q14">
+        <v>0.002875166286888889</v>
+      </c>
+      <c r="R14">
+        <v>0.025876496582</v>
+      </c>
+      <c r="S14">
+        <v>0.002612493060861983</v>
+      </c>
+      <c r="T14">
+        <v>0.002612493060861983</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.09389933333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.281698</v>
+      </c>
+      <c r="I15">
+        <v>0.05456148485767623</v>
+      </c>
+      <c r="J15">
+        <v>0.05456148485767622</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.3195506666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.9586520000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.499698716679003</v>
+      </c>
+      <c r="P15">
+        <v>0.499698716679003</v>
+      </c>
+      <c r="Q15">
+        <v>0.03000559456622223</v>
+      </c>
+      <c r="R15">
+        <v>0.270050351096</v>
+      </c>
+      <c r="S15">
+        <v>0.02726430396348166</v>
+      </c>
+      <c r="T15">
+        <v>0.02726430396348166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.09389933333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.281698</v>
+      </c>
+      <c r="I16">
+        <v>0.05456148485767623</v>
+      </c>
+      <c r="J16">
+        <v>0.05456148485767622</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.2893163333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.867949</v>
+      </c>
+      <c r="O16">
+        <v>0.4524196490935437</v>
+      </c>
+      <c r="P16">
+        <v>0.4524196490935438</v>
+      </c>
+      <c r="Q16">
+        <v>0.02716661082244445</v>
+      </c>
+      <c r="R16">
+        <v>0.244499497402</v>
+      </c>
+      <c r="S16">
+        <v>0.02468468783333258</v>
+      </c>
+      <c r="T16">
+        <v>0.02468468783333258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.023520333333333</v>
+      </c>
+      <c r="H17">
+        <v>3.070561</v>
+      </c>
+      <c r="I17">
+        <v>0.5947304116680669</v>
+      </c>
+      <c r="J17">
+        <v>0.5947304116680669</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.03061966666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.091859</v>
+      </c>
+      <c r="O17">
+        <v>0.04788163422745326</v>
+      </c>
+      <c r="P17">
+        <v>0.04788163422745326</v>
+      </c>
+      <c r="Q17">
+        <v>0.03133985143322222</v>
+      </c>
+      <c r="R17">
+        <v>0.2820586628989999</v>
+      </c>
+      <c r="S17">
+        <v>0.02847666403543309</v>
+      </c>
+      <c r="T17">
+        <v>0.02847666403543309</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.023520333333333</v>
+      </c>
+      <c r="H18">
+        <v>3.070561</v>
+      </c>
+      <c r="I18">
+        <v>0.5947304116680669</v>
+      </c>
+      <c r="J18">
+        <v>0.5947304116680669</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.3195506666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.9586520000000001</v>
+      </c>
+      <c r="O18">
+        <v>0.499698716679003</v>
+      </c>
+      <c r="P18">
+        <v>0.499698716679003</v>
+      </c>
+      <c r="Q18">
+        <v>0.3270666048635555</v>
+      </c>
+      <c r="R18">
+        <v>2.943599443772</v>
+      </c>
+      <c r="S18">
+        <v>0.2971860234805082</v>
+      </c>
+      <c r="T18">
+        <v>0.2971860234805082</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.023520333333333</v>
+      </c>
+      <c r="H19">
+        <v>3.070561</v>
+      </c>
+      <c r="I19">
+        <v>0.5947304116680669</v>
+      </c>
+      <c r="J19">
+        <v>0.5947304116680669</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.2893163333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.867949</v>
+      </c>
+      <c r="O19">
+        <v>0.4524196490935437</v>
+      </c>
+      <c r="P19">
+        <v>0.4524196490935438</v>
+      </c>
+      <c r="Q19">
+        <v>0.2961211499321111</v>
+      </c>
+      <c r="R19">
+        <v>2.665090349389</v>
+      </c>
+      <c r="S19">
+        <v>0.2690677241521257</v>
+      </c>
+      <c r="T19">
+        <v>0.2690677241521257</v>
       </c>
     </row>
   </sheetData>
